--- a/val1.xlsx
+++ b/val1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14771" windowWidth="30048"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="30048" windowHeight="14771" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="家庭财产库存清单" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="房间查找" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="房间查找" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ColumnTitle1">库存[[#Headers],[物品编号]]</definedName>
@@ -17,7 +17,7 @@
     <definedName name="RowTitleRegion2..I2">家庭财产库存清单!$G$2</definedName>
     <definedName name="RowTitleRegion3..D8">家庭财产库存清单!$C$3</definedName>
     <definedName name="RowTitleRegion4..I8">家庭财产库存清单!$H$3</definedName>
-    <definedName localSheetId="1" name="_xlnm.Print_Titles">'房间查找'!$3:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'房间查找'!$3:$3</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -26,9 +26,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt formatCode="\¥#,##0.00_);\(\¥#,##0.00\)" numFmtId="164"/>
-    <numFmt formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####" numFmtId="165"/>
-    <numFmt formatCode="0_);\(0\)" numFmtId="166"/>
+    <numFmt numFmtId="164" formatCode="\¥#,##0.00_);\(\¥#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
+    <numFmt numFmtId="166" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -475,266 +475,266 @@
     </border>
   </borders>
   <cellStyleXfs count="56">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="right" indent="1" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="164">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="41"/>
-    <xf borderId="0" fillId="5" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="6" fontId="9" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="9"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment horizontal="right" indent="1" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0">
-      <alignment horizontal="left" indent="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="7" numFmtId="0">
-      <alignment horizontal="left" indent="1" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="0" numFmtId="0"/>
-    <xf borderId="4" fillId="11" fontId="14" numFmtId="0"/>
-    <xf borderId="5" fillId="11" fontId="15" numFmtId="0"/>
-    <xf borderId="6" fillId="12" fontId="16" numFmtId="0"/>
-    <xf borderId="0" fillId="13" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0"/>
-    <xf borderId="7" fillId="0" fontId="17" numFmtId="0"/>
-    <xf borderId="8" fillId="0" fontId="18" numFmtId="0"/>
-    <xf borderId="0" fillId="15" fontId="19" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="14">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="16" fontId="20" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0">
-      <alignment horizontal="left" indent="1" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="17" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="18" fontId="6" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="19" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="20" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="21" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="22" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="23" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="24" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="25" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="26" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="27" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="28" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="29" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="30" fontId="6" numFmtId="0"/>
-    <xf borderId="0" fillId="31" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="32" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="38">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="19">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="15">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="15">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="22">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="21">
-      <alignment horizontal="left" indent="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="21">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="36">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="36">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="55">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="55">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="24">
-      <alignment horizontal="left" indent="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="17">
-      <alignment horizontal="right" indent="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="55">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="24">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="17">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="55">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="24">
-      <alignment horizontal="left" indent="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="3" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="54">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="24">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="54">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="39">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="39">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="5" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="34">
-      <alignment horizontal="left" indent="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="3" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" indent="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" indent="1" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="34">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="3" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="24">
-      <alignment horizontal="left" indent="1" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="3" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="5">
-      <alignment horizontal="left" indent="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="9">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="24">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="right" indent="1" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" indent="1" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="56">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="电话" xfId="5"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="6"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="7"/>
-    <cellStyle builtinId="27" name="差" xfId="8"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="9"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
     <cellStyle name="日期" xfId="10"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="11"/>
-    <cellStyle builtinId="8" name="超链接" xfId="12"/>
-    <cellStyle builtinId="5" name="百分比" xfId="13"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="14"/>
-    <cellStyle builtinId="10" name="注释" xfId="15"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="16"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="17"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="18"/>
-    <cellStyle builtinId="15" name="标题" xfId="19"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="20"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="21"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="22"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="23"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="24"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="25"/>
-    <cellStyle builtinId="21" name="输出" xfId="26"/>
-    <cellStyle builtinId="22" name="计算" xfId="27"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="28"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="29"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="30"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="31"/>
-    <cellStyle builtinId="25" name="汇总" xfId="32"/>
-    <cellStyle builtinId="26" name="好" xfId="33"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="11" builtinId="40"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8"/>
+    <cellStyle name="百分比" xfId="13" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="23" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="24" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="25" builtinId="44"/>
+    <cellStyle name="输出" xfId="26" builtinId="21"/>
+    <cellStyle name="计算" xfId="27" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="28" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="29" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="30" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="31" builtinId="24"/>
+    <cellStyle name="汇总" xfId="32" builtinId="25"/>
+    <cellStyle name="好" xfId="33" builtinId="26"/>
     <cellStyle name="库存日期" xfId="34"/>
-    <cellStyle builtinId="28" name="适中" xfId="35"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
     <cellStyle name="标题 1 2" xfId="36"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="37"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="38"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
     <cellStyle name="序号" xfId="39"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="40"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="41"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="42"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="43"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="44"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="45"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="46"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="47"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="48"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="49"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="50"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="51"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="52"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="53"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="40" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="41" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="42" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="43" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="44" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="45" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="48" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="49" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="50" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="51" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="52" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="53" builtinId="52"/>
     <cellStyle name="物品表格标题" xfId="54"/>
     <cellStyle name="隐藏文字" xfId="55"/>
   </cellStyles>
@@ -865,23 +865,23 @@
       </font>
     </dxf>
   </dxfs>
-  <tableStyles count="3" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2">
-    <tableStyle count="7" name="家庭库存" pivot="0">
-      <tableStyleElement dxfId="6" type="wholeTable"/>
-      <tableStyleElement dxfId="5" type="headerRow"/>
-      <tableStyleElement dxfId="4" type="totalRow"/>
-      <tableStyleElement dxfId="3" type="lastColumn"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="1" type="firstColumnStripe"/>
-      <tableStyleElement dxfId="0" type="firstTotalCell"/>
+  <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="家庭库存" pivot="0" count="7">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="lastColumn" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="1"/>
+      <tableStyleElement type="firstTotalCell" dxfId="0"/>
     </tableStyle>
-    <tableStyle count="2" name="家庭库存切片器" pivot="0" table="0">
-      <tableStyleElement dxfId="8" type="wholeTable"/>
-      <tableStyleElement dxfId="7" type="headerRow"/>
+    <tableStyle name="家庭库存切片器" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
     </tableStyle>
-    <tableStyle count="10" name="家庭库存切片器 " pivot="0" table="0">
-      <tableStyleElement dxfId="10" type="wholeTable"/>
-      <tableStyleElement dxfId="9" type="headerRow"/>
+    <tableStyle name="家庭库存切片器 " pivot="0" table="0" count="10">
+      <tableStyleElement type="wholeTable" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -956,7 +956,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>12</col>
@@ -967,42 +967,17 @@
     <ext cx="1609725" cy="1847850"/>
     <pic>
       <nvPicPr>
-        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>12</col>
-      <colOff>0</colOff>
-      <row>10</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="1590675" cy="1847850"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr descr="Picture" id="2" name="Image 2"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1011,9 +986,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="库存" headerRowCount="1" id="1" name="库存" ref="B9:M12" totalsRowCount="1">
-  <autoFilter ref="B9:M12"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="库存" displayName="库存" ref="B9:N12" headerRowCount="1" totalsRowCount="1">
+  <autoFilter ref="B9:N12"/>
+  <tableColumns count="13">
     <tableColumn id="21" name="物品编号" totalsRowLabel="总计"/>
     <tableColumn id="3" name="房间/区域" totalsRowFunction="custom">
       <totalsRowFormula>"库存项目: "&amp;SUBTOTAL(103,库存[房间/区域])</totalsRowFormula>
@@ -1028,13 +1003,14 @@
     <tableColumn id="13" name="备注"/>
     <tableColumn id="14" name="是否有照片？"/>
     <tableColumn id="1" name="图片"/>
+    <tableColumn id="2" name="物品2编号2" totalsRowLabel="总计"/>
   </tableColumns>
-  <tableStyleInfo name="家庭库存" showColumnStripes="0" showFirstColumn="1" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="家庭库存" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" displayName="RoomLookup" headerRowCount="1" id="2" name="RoomLookup" ref="B3:B15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="RoomLookup" displayName="RoomLookup" ref="B3:B15" headerRowCount="1">
   <autoFilter ref="B3:B15"/>
   <sortState ref="B3:B15">
     <sortCondition ref="B3:B15"/>
@@ -1042,7 +1018,7 @@
   <tableColumns count="1">
     <tableColumn id="1" name="房间/区域" totalsRowFunction="count"/>
   </tableColumns>
-  <tableStyleInfo name="家庭库存" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="家庭库存" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1216,35 +1192,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="2.78030303030303"/>
-    <col customWidth="1" max="2" min="2" style="4" width="9.88636363636364"/>
-    <col customWidth="1" max="3" min="3" style="4" width="11.219696969697"/>
-    <col customWidth="1" max="4" min="4" style="4" width="16.6666666666667"/>
-    <col customWidth="1" max="5" min="5" style="4" width="16.5530303030303"/>
-    <col customWidth="1" max="6" min="6" style="4" width="10.780303030303"/>
-    <col customWidth="1" max="7" min="7" style="4" width="10.5530303030303"/>
-    <col customWidth="1" max="8" min="8" style="4" width="13.3333333333333"/>
-    <col customWidth="1" max="9" min="9" style="4" width="16"/>
-    <col customWidth="1" max="10" min="10" style="4" width="15"/>
-    <col customWidth="1" max="11" min="11" style="4" width="21.3333333333333"/>
-    <col customWidth="1" max="12" min="12" width="13.1060606060606"/>
-    <col customWidth="1" max="13" min="13" width="21.1818181818182"/>
+    <col width="2.78030303030303" customWidth="1" style="28" min="1" max="1"/>
+    <col width="9.88636363636364" customWidth="1" style="28" min="2" max="2"/>
+    <col width="11.219696969697" customWidth="1" style="28" min="3" max="3"/>
+    <col width="16.6666666666667" customWidth="1" style="28" min="4" max="4"/>
+    <col width="16.5530303030303" customWidth="1" style="28" min="5" max="5"/>
+    <col width="10.780303030303" customWidth="1" style="28" min="6" max="6"/>
+    <col width="10.5530303030303" customWidth="1" style="28" min="7" max="7"/>
+    <col width="13.3333333333333" customWidth="1" style="28" min="8" max="8"/>
+    <col width="16" customWidth="1" style="28" min="9" max="9"/>
+    <col width="15" customWidth="1" style="28" min="10" max="10"/>
+    <col width="21.3333333333333" customWidth="1" style="28" min="11" max="11"/>
+    <col width="13.1060606060606" customWidth="1" style="28" min="12" max="12"/>
+    <col width="21.1818181818182" customWidth="1" style="28" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="65.09999999999999" r="1" s="28">
+    <row r="1" ht="65.09999999999999" customHeight="1" s="28">
       <c r="A1" s="4" t="n"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
@@ -1269,7 +1245,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="2" s="28">
+    <row r="2" ht="30" customHeight="1" s="28">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="6" t="inlineStr">
         <is>
@@ -1298,7 +1274,7 @@
       <c r="K2" s="6" t="n"/>
       <c r="L2" s="6" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="3" s="28">
+    <row r="3" ht="18" customHeight="1" s="28">
       <c r="A3" s="4" t="n"/>
       <c r="B3" s="9" t="inlineStr">
         <is>
@@ -1332,7 +1308,7 @@
       <c r="K3" s="33" t="n"/>
       <c r="L3" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="4" s="28">
+    <row r="4" ht="18" customHeight="1" s="28">
       <c r="A4" s="4" t="n"/>
       <c r="C4" s="29" t="n"/>
       <c r="D4" s="29" t="n"/>
@@ -1353,7 +1329,7 @@
       <c r="K4" s="33" t="n"/>
       <c r="L4" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="5" s="28">
+    <row r="5" ht="18" customHeight="1" s="28">
       <c r="A5" s="4" t="n"/>
       <c r="B5" s="13" t="inlineStr">
         <is>
@@ -1387,7 +1363,7 @@
       <c r="K5" s="33" t="n"/>
       <c r="L5" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="6" s="28">
+    <row r="6" ht="18" customHeight="1" s="28">
       <c r="A6" s="4" t="n"/>
       <c r="C6" s="29" t="n"/>
       <c r="D6" s="29" t="n"/>
@@ -1408,7 +1384,7 @@
       <c r="K6" s="33" t="n"/>
       <c r="L6" s="25" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="7" s="28">
+    <row r="7" ht="18" customHeight="1" s="28">
       <c r="A7" s="4" t="n"/>
       <c r="B7" s="13" t="inlineStr">
         <is>
@@ -1442,7 +1418,7 @@
       <c r="K7" s="33" t="n"/>
       <c r="L7" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="18" r="8" s="28">
+    <row r="8" ht="18" customHeight="1" s="28">
       <c r="A8" s="4" t="n"/>
       <c r="C8" s="29" t="n"/>
       <c r="D8" s="29" t="n"/>
@@ -1463,7 +1439,7 @@
       <c r="K8" s="33" t="n"/>
       <c r="L8" s="4" t="n"/>
     </row>
-    <row customHeight="1" ht="37.5" r="9" s="28">
+    <row r="9" ht="37.5" customHeight="1" s="28">
       <c r="B9" s="18" t="inlineStr">
         <is>
           <t>物品编号</t>
@@ -1528,8 +1504,13 @@
           <t>图片</t>
         </is>
       </c>
-    </row>
-    <row customHeight="1" ht="162" r="10" s="28">
+      <c r="N9" s="18" t="inlineStr">
+        <is>
+          <t>物品2编号2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="162" customHeight="1" s="28">
       <c r="B10" s="35">
         <f>ROW($A1)</f>
         <v/>
@@ -1576,8 +1557,26 @@
         </is>
       </c>
       <c r="M10" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="162" r="11" s="28">
+      <c r="N10" s="35">
+        <f>ROW($A1)</f>
+        <v/>
+      </c>
+      <c r="O10" s="18" t="n"/>
+      <c r="P10" s="18" t="n"/>
+      <c r="Q10" s="4" t="n"/>
+      <c r="R10" s="4" t="n"/>
+      <c r="S10" s="4" t="n"/>
+      <c r="T10" s="4" t="n"/>
+      <c r="U10" s="4" t="n"/>
+      <c r="V10" s="4" t="n"/>
+      <c r="W10" s="4" t="n"/>
+      <c r="X10" s="4" t="n"/>
+      <c r="Y10" s="4" t="n"/>
+      <c r="Z10" s="4" t="n"/>
+      <c r="AA10" s="4" t="n"/>
+      <c r="AB10" s="18" t="n"/>
+    </row>
+    <row r="11" ht="162" customHeight="1" s="28">
       <c r="B11" s="35">
         <f>ROW($A1)</f>
         <v/>
@@ -1623,9 +1622,31 @@
           <t>是</t>
         </is>
       </c>
-      <c r="M11" s="4" t="n"/>
-    </row>
-    <row customHeight="1" ht="30" r="12" s="28">
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>C:\Users\e9\Pictures\微信图片_20220616151258.png</t>
+        </is>
+      </c>
+      <c r="N11" s="35">
+        <f>ROW($A1)</f>
+        <v/>
+      </c>
+      <c r="O11" s="18" t="n"/>
+      <c r="P11" s="18" t="n"/>
+      <c r="Q11" s="4" t="n"/>
+      <c r="R11" s="4" t="n"/>
+      <c r="S11" s="4" t="n"/>
+      <c r="T11" s="4" t="n"/>
+      <c r="U11" s="4" t="n"/>
+      <c r="V11" s="4" t="n"/>
+      <c r="W11" s="4" t="n"/>
+      <c r="X11" s="4" t="n"/>
+      <c r="Y11" s="4" t="n"/>
+      <c r="Z11" s="4" t="n"/>
+      <c r="AA11" s="4" t="n"/>
+      <c r="AB11" s="18" t="n"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" s="28">
       <c r="B12" s="4" t="inlineStr">
         <is>
           <t>总计</t>
@@ -1652,6 +1673,52 @@
       </c>
       <c r="K12" s="4" t="n"/>
       <c r="L12" s="4" t="n"/>
+      <c r="N12" s="4" t="inlineStr">
+        <is>
+          <t>总计</t>
+        </is>
+      </c>
+      <c r="O12" s="35" t="n"/>
+      <c r="P12" s="35" t="n"/>
+      <c r="Q12" s="4" t="n"/>
+      <c r="R12" s="4" t="n"/>
+      <c r="S12" s="4" t="n"/>
+      <c r="T12" s="20" t="n"/>
+      <c r="U12" s="21" t="n"/>
+      <c r="V12" s="4" t="n"/>
+      <c r="W12" s="36" t="n"/>
+      <c r="X12" s="36" t="n"/>
+      <c r="Y12" s="4" t="n"/>
+      <c r="Z12" s="4" t="n"/>
+      <c r="AA12" s="4" t="n"/>
+      <c r="AB12" s="35" t="n"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" s="28">
+      <c r="O13" s="4" t="n"/>
+      <c r="P13" s="4" t="n"/>
+      <c r="Q13" s="4" t="n"/>
+      <c r="R13" s="4" t="n"/>
+      <c r="S13" s="4" t="n"/>
+      <c r="T13" s="4" t="n"/>
+      <c r="U13" s="4" t="n"/>
+      <c r="V13" s="4" t="n"/>
+      <c r="W13" s="37" t="n"/>
+      <c r="X13" s="37" t="n"/>
+      <c r="Y13" s="4" t="n"/>
+      <c r="Z13" s="4" t="n"/>
+      <c r="AB13" s="4" t="n"/>
+    </row>
+    <row r="14"/>
+    <row r="15"/>
+    <row r="16" ht="30" customHeight="1" s="28">
+      <c r="D16" s="4" t="n"/>
+      <c r="K16" s="4" t="n"/>
+    </row>
+    <row r="17" ht="30" customHeight="1" s="28">
+      <c r="D17" s="4" t="n"/>
+    </row>
+    <row r="18" ht="30" customHeight="1" s="28">
+      <c r="D18" s="4" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1675,7 +1742,16 @@
     <mergeCell ref="D5:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="J10:J11">
-    <cfRule priority="1" type="dataBar">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="5"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X11:X12">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1684,52 +1760,52 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="31">
-    <dataValidation allowBlank="1" prompt="在此工作簿中创建家庭清单。在此工作表中输入业主、保险和清单详细信息。将自动计算所有库存物品的总估值" showErrorMessage="1" showInputMessage="1" sqref="A1"/>
-    <dataValidation allowBlank="1" prompt="右侧单元格自动计算所有物品的总估值。在单元格 I2 中输入库存日期" showErrorMessage="1" showInputMessage="1" sqref="B2:D2"/>
-    <dataValidation allowBlank="1" prompt="此工作表的标题位于单元格 B1 到 D1" showErrorMessage="1" showInputMessage="1" sqref="B1:C1"/>
-    <dataValidation allowBlank="1" prompt="在右侧单元格中输入库存日期" showErrorMessage="1" showInputMessage="1" sqref="G2:H2"/>
-    <dataValidation allowBlank="1" prompt="在此单元格中输入库存日期" showErrorMessage="1" showInputMessage="1" sqref="I2"/>
-    <dataValidation allowBlank="1" prompt="此单元格自动计算所有物品的总估值。在单元格 I2 中输入库存日期" showErrorMessage="1" showInputMessage="1" sqref="E2"/>
-    <dataValidation allowBlank="1" error="从列表中选择房间/区域。在房间查找工作表中输入新的房间/区域。选择“取消”，然后按 Alt+向下键可出现选项，然后按向下键和 Enter 做出选择" errorStyle="warning" showErrorMessage="1" showInputMessage="1" sqref="C10" type="list">
+    <dataValidation sqref="A1" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在此工作簿中创建家庭清单。在此工作表中输入业主、保险和清单详细信息。将自动计算所有库存物品的总估值"/>
+    <dataValidation sqref="B2:D2" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="右侧单元格自动计算所有物品的总估值。在单元格 I2 中输入库存日期"/>
+    <dataValidation sqref="B1:C1" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="此工作表的标题位于单元格 B1 到 D1"/>
+    <dataValidation sqref="G2:H2" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在右侧单元格中输入库存日期"/>
+    <dataValidation sqref="I2" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在此单元格中输入库存日期"/>
+    <dataValidation sqref="E2" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="此单元格自动计算所有物品的总估值。在单元格 I2 中输入库存日期"/>
+    <dataValidation sqref="H3" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在右侧单元格中输入保险公司名称"/>
+    <dataValidation sqref="G9 U10" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在此标题下的此列中输入购买日期"/>
+    <dataValidation sqref="H4" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在右侧单元格中输入保险公司电话号码"/>
+    <dataValidation sqref="H5" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在右侧单元格中输入保险公司保单号"/>
+    <dataValidation sqref="H6" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在右侧单元格中输入保险代理人姓名"/>
+    <dataValidation sqref="H7" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在右侧单元格中输入保险代理人电话号码"/>
+    <dataValidation sqref="H8" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在右侧单元格中输入保险代理人地址"/>
+    <dataValidation sqref="K9 Y10" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在此标题下的此列中输入备注"/>
+    <dataValidation sqref="F9 T10" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在此标题下的此列中输入序列号/ID 号"/>
+    <dataValidation sqref="I8:K8" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在此单元格中输入保险代理人地址，在表格中自单元格 B10 起输入库存详细信息。使用单元格 B9 中的切片器来按房间/区域筛选物品"/>
+    <dataValidation sqref="B9 N9 O10 P10 AB10" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在此标题下的此列中输入物品编号。使用标题筛选器来查找特定项"/>
+    <dataValidation sqref="L10 Z11" showErrorMessage="1" showInputMessage="1" allowBlank="1" error="从此列表中选择“是”或“否”以指明物品的照片是否存在。选择“取消”，按 Alt+向下键可显示选项，然后按向下键和 Enter 做出选择" type="list" errorStyle="warning">
+      <formula1>"是, 否"</formula1>
+    </dataValidation>
+    <dataValidation sqref="C9 Q10" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在此标题下的此列中选择房间/区域。在房间查找工作表中输入新的房间/区域。按 Alt+向下键可出现选项，然后按向下键和 Enter 做出选择"/>
+    <dataValidation sqref="D9 R10" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在此标题下的此列中输入各个项/说明"/>
+    <dataValidation sqref="E9 S10" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在此标题下的此列中输入品牌/型号"/>
+    <dataValidation sqref="H9 V10" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在此标题下的此列中输入购买地点"/>
+    <dataValidation sqref="I9 W10" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在此标题下的此列中输入购买价格"/>
+    <dataValidation sqref="J9 X10" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在此标题下的此列中输入当前估值。每行中显示当前估值的数据条会自动更新"/>
+    <dataValidation sqref="L9 Z10" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="如果物品的照片存在，则选择“是”，否则在此标题下的此列中选择“否”。按 Alt+向下键可显示选项，然后按向下键和 Enter 进行选择"/>
+    <dataValidation sqref="B10 N10 O11 P11 AB11 B13" showErrorMessage="1" showInputMessage="1" allowBlank="1" errorTitle="无效数据" error="请从列表中选择条目。若要添加或更改物品，请使用房间查找工作表上的房间/区域表。 "/>
+    <dataValidation sqref="C10 Q11" showErrorMessage="1" showInputMessage="1" allowBlank="1" error="从列表中选择房间/区域。在房间查找工作表中输入新的房间/区域。选择“取消”，然后按 Alt+向下键可出现选项，然后按向下键和 Enter 做出选择" type="list" errorStyle="warning">
       <formula1>RoomList</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" prompt="在右侧单元格中输入保险公司名称" showErrorMessage="1" showInputMessage="1" sqref="H3"/>
-    <dataValidation allowBlank="1" prompt="在此标题下的此列中输入购买日期" showErrorMessage="1" showInputMessage="1" sqref="G9"/>
-    <dataValidation allowBlank="1" prompt="在右侧单元格中输入保险公司电话号码" showErrorMessage="1" showInputMessage="1" sqref="H4"/>
-    <dataValidation allowBlank="1" prompt="在右侧单元格中输入保险公司保单号" showErrorMessage="1" showInputMessage="1" sqref="H5"/>
-    <dataValidation allowBlank="1" prompt="在右侧单元格中输入保险代理人姓名" showErrorMessage="1" showInputMessage="1" sqref="H6"/>
-    <dataValidation allowBlank="1" prompt="在右侧单元格中输入保险代理人电话号码" showErrorMessage="1" showInputMessage="1" sqref="H7"/>
-    <dataValidation allowBlank="1" prompt="在右侧单元格中输入保险代理人地址" showErrorMessage="1" showInputMessage="1" sqref="H8"/>
-    <dataValidation allowBlank="1" prompt="在此标题下的此列中输入备注" showErrorMessage="1" showInputMessage="1" sqref="K9"/>
-    <dataValidation allowBlank="1" prompt="在此标题下的此列中输入序列号/ID 号" showErrorMessage="1" showInputMessage="1" sqref="F9"/>
-    <dataValidation allowBlank="1" prompt="在此单元格中输入保险代理人地址，在表格中自单元格 B10 起输入库存详细信息。使用单元格 B9 中的切片器来按房间/区域筛选物品" showErrorMessage="1" showInputMessage="1" sqref="I8:K8"/>
-    <dataValidation allowBlank="1" prompt="在此标题下的此列中输入物品编号。使用标题筛选器来查找特定项" showErrorMessage="1" showInputMessage="1" sqref="B9"/>
-    <dataValidation allowBlank="1" prompt="在此标题下的此列中选择房间/区域。在房间查找工作表中输入新的房间/区域。按 Alt+向下键可出现选项，然后按向下键和 Enter 做出选择" showErrorMessage="1" showInputMessage="1" sqref="C9"/>
-    <dataValidation allowBlank="1" prompt="在此标题下的此列中输入各个项/说明" showErrorMessage="1" showInputMessage="1" sqref="D9"/>
-    <dataValidation allowBlank="1" prompt="在此标题下的此列中输入品牌/型号" showErrorMessage="1" showInputMessage="1" sqref="E9"/>
-    <dataValidation allowBlank="1" prompt="在此标题下的此列中输入购买地点" showErrorMessage="1" showInputMessage="1" sqref="H9"/>
-    <dataValidation allowBlank="1" prompt="在此标题下的此列中输入购买价格" showErrorMessage="1" showInputMessage="1" sqref="I9"/>
-    <dataValidation allowBlank="1" prompt="在此标题下的此列中输入当前估值。每行中显示当前估值的数据条会自动更新" showErrorMessage="1" showInputMessage="1" sqref="J9"/>
-    <dataValidation allowBlank="1" prompt="如果物品的照片存在，则选择“是”，否则在此标题下的此列中选择“否”。按 Alt+向下键可显示选项，然后按向下键和 Enter 进行选择" showErrorMessage="1" showInputMessage="1" sqref="L9"/>
-    <dataValidation allowBlank="1" error="请从列表中选择条目。若要添加或更改物品，请使用房间查找工作表上的房间/区域表。 " errorTitle="无效数据" showErrorMessage="1" showInputMessage="1" sqref="B10"/>
-    <dataValidation allowBlank="1" error="从此列表中选择“是”或“否”以指明物品的照片是否存在。选择“取消”，按 Alt+向下键可显示选项，然后按向下键和 Enter 做出选择" errorStyle="warning" showErrorMessage="1" showInputMessage="1" sqref="L10" type="list">
-      <formula1>"是, 否"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" prompt="在单元格 C3 到 E8 中输入个人详细信息，在单元格 H3 到 K8 中输入保险信息" showErrorMessage="1" showInputMessage="1" sqref="B3:B4"/>
-    <dataValidation allowBlank="1" prompt="在右侧单元格中输入业主姓名" showErrorMessage="1" showInputMessage="1" sqref="C3:C4"/>
-    <dataValidation allowBlank="1" prompt="在右侧单元格中输入业主地址" showErrorMessage="1" showInputMessage="1" sqref="C5:C6"/>
-    <dataValidation allowBlank="1" prompt="在右侧单元格中输入业主电话号码" showErrorMessage="1" showInputMessage="1" sqref="C7:C8"/>
+    <dataValidation sqref="B3:B4" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在单元格 C3 到 E8 中输入个人详细信息，在单元格 H3 到 K8 中输入保险信息"/>
+    <dataValidation sqref="C3:C4" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在右侧单元格中输入业主姓名"/>
+    <dataValidation sqref="C5:C6" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在右侧单元格中输入业主地址"/>
+    <dataValidation sqref="C7:C8" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在右侧单元格中输入业主电话号码"/>
   </dataValidations>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor theme="5"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1741,21 +1817,21 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="9" defaultRowHeight="30"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="28" width="2.10606060606061"/>
-    <col customWidth="1" max="2" min="2" style="28" width="50.6666666666667"/>
-    <col customWidth="1" max="3" min="3" style="28" width="2.78030303030303"/>
+    <col width="2.10606060606061" customWidth="1" style="28" min="1" max="1"/>
+    <col width="50.6666666666667" customWidth="1" style="28" min="2" max="2"/>
+    <col width="2.78030303030303" customWidth="1" style="28" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="35.1" r="1" s="28">
+    <row r="1" ht="35.1" customHeight="1" s="28">
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>房间查找</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="50.1" r="2" s="28">
+    <row r="2" ht="50.1" customHeight="1" s="28">
       <c r="B2" s="2" t="inlineStr">
         <is>
           <t>在此列表中修改或添加条目。只需在表格的最后一行下方直接键入现有条目或添加新条目。</t>
@@ -1855,13 +1931,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" prompt="在此工作表中创建房间或区域清单。通过在此工作表中插入或修改房间查找表中的房间/区域，在库存表中自定义房间/区域选择" showErrorMessage="1" showInputMessage="1" sqref="A1"/>
-    <dataValidation allowBlank="1" prompt="此工作表的标题位于此单元格中" showErrorMessage="1" showInputMessage="1" sqref="B1"/>
-    <dataValidation allowBlank="1" prompt="房间或区域位于此标题下的此列中" showErrorMessage="1" showInputMessage="1" sqref="B3"/>
+    <dataValidation sqref="A1" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="在此工作表中创建房间或区域清单。通过在此工作表中插入或修改房间查找表中的房间/区域，在库存表中自定义房间/区域选择"/>
+    <dataValidation sqref="B1" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="此工作表的标题位于此单元格中"/>
+    <dataValidation sqref="B3" showErrorMessage="1" showInputMessage="1" allowBlank="1" prompt="房间或区域位于此标题下的此列中"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.25" right="0.25" top="0.75"/>
-  <pageSetup fitToHeight="0" orientation="landscape" paperSize="9"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" paperSize="9" fitToHeight="0"/>
   <headerFooter differentFirst="1">
     <oddHeader/>
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
@@ -1871,7 +1947,7 @@
     <firstFooter/>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>